--- a/data/am_tram14_name.xlsx
+++ b/data/am_tram14_name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\UTNCE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769A28AF-AE2E-4F88-80A2-B1FBE19490CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C5CD0A-44A2-479E-AAC2-7E578B4185F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41625" yWindow="1710" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
     <t>Dam</t>
   </si>
   <si>
-    <t>Centraal Station</t>
-  </si>
-  <si>
     <t>Meester Visserplein</t>
+  </si>
+  <si>
+    <t>Centraal Station_A</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -475,7 +475,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
